--- a/data/long_dif/P18_5-Urba-long_dif.xlsx
+++ b/data/long_dif/P18_5-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>33,78%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,21%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>41,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29,05%</t>
+          <t>14,64%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>37,87%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>28,66%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,68; 17,56</t>
+          <t>10,81; 17,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,09; 40,1</t>
+          <t>28,15; 39,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,65; 31,82</t>
+          <t>22,87; 31,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,54; 19,36</t>
+          <t>20,81; 31,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,35; 46,05</t>
+          <t>12,54; 18,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,15; 34,88</t>
+          <t>36,95; 46,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,52; 17,23</t>
+          <t>27,43; 34,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,34; 41,45</t>
+          <t>26,32; 36,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,06; 31,97</t>
+          <t>12,35; 16,99</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>34,3; 40,88</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26,06; 31,87</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>24,88; 32,2</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,69%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>41,24%</t>
+          <t>41,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44,31%</t>
+          <t>44,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>46,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,52%</t>
+          <t>33,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>40,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>45,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>42,69%</t>
+          <t>33,78%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>40,36%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>42,48%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>46,08%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,8; 39,61</t>
+          <t>29,19; 40,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,62; 46,53</t>
+          <t>35,84; 47,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,74; 49,36</t>
+          <t>38,91; 49,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,97; 37,25</t>
+          <t>40,24; 56,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,88; 44,66</t>
+          <t>29,48; 37,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,94; 46,37</t>
+          <t>34,48; 43,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,36; 37,36</t>
+          <t>36,62; 44,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,78; 44,18</t>
+          <t>40,38; 50,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,57; 46,41</t>
+          <t>30,41; 37,01</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>36,96; 44,1</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>38,98; 45,79</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>41,94; 51,22</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>52,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>51,2%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>51,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,85%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>51,79%</t>
+          <t>28,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>51,58%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21,77%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28,5%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25,26%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,41; 58,27</t>
+          <t>46,26; 57,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,84; 32,35</t>
+          <t>19,81; 32,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,08; 35,64</t>
+          <t>23,81; 35,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46,87; 55,95</t>
+          <t>20,85; 32,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,84; 23,18</t>
+          <t>46,83; 55,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,14; 31,25</t>
+          <t>15,97; 23,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,84; 55,29</t>
+          <t>25,13; 32,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,82; 25,61</t>
+          <t>18,99; 27,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,09; 31,65</t>
+          <t>48,08; 54,9</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18,9; 25,56</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>25,69; 32,12</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21,96; 29,04</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,86; 21,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,82; 43,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,6; 35,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,53; 21,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,45; 44,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,88; 32,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,19; 19,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,13; 42,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,08; 32,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,13%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39,33%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>16,47%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>38,32%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>29,14%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31,07%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,0; 48,05</t>
+          <t>13,5; 21,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,26; 50,61</t>
+          <t>31,62; 44,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,59; 45,58</t>
+          <t>25,88; 35,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,99; 37,55</t>
+          <t>24,59; 37,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,19; 39,64</t>
+          <t>12,23; 19,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,25; 48,4</t>
+          <t>34,17; 44,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,72; 41,03</t>
+          <t>23,81; 32,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,42; 43,09</t>
+          <t>27,16; 38,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>38,19; 45,4</t>
+          <t>14,22; 19,39</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>34,23; 42,6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>25,86; 32,51</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>27,06; 35,89</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>42,53%</t>
+          <t>38,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>42,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>50,28%</t>
+          <t>46,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>33,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>46,44%</t>
+          <t>43,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>35,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>35,8%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>38,39%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>41,63%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>40,67%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>36,25; 48,93</t>
+          <t>33,05; 45,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,5; 25,19</t>
+          <t>35,9; 49,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,94; 35,15</t>
+          <t>34,1; 45,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>44,84; 55,17</t>
+          <t>39,32; 53,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,28; 32,56</t>
+          <t>28,93; 39,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,57; 32,82</t>
+          <t>29,25; 39,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>42,67; 50,59</t>
+          <t>39,09; 48,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,84; 27,02</t>
+          <t>29,48; 40,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,13; 32,74</t>
+          <t>32,07; 39,97</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>34,66; 43,01</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>37,92; 45,47</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>36,24; 44,67</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>44,15%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>39,42%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>23,96%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>51,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>39,01%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>47,74%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>23,29%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>29,23%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>28,26%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,72; 33,49</t>
+          <t>38,21; 50,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>28,04; 53,71</t>
+          <t>15,67; 25,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,73; 52,87</t>
+          <t>24,72; 35,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,97; 32,5</t>
+          <t>18,8; 30,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,32; 47,97</t>
+          <t>46,38; 56,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,49; 31,05</t>
+          <t>21,52; 31,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,3; 28,92</t>
+          <t>24,79; 32,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>31,76; 47,76</t>
+          <t>27,75; 38,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,96; 39,75</t>
+          <t>44,09; 51,84</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19,75; 27,16</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>26,41; 32,78</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>24,56; 32,31</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>36,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>52,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>44,55%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>24,45; 54,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>26,26; 48,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27,1; 45,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,7; 42,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,68; 45,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>43,66; 61,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,58; 43,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29,25; 44,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>37,64; 51,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>42,12%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>47,14%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>40,01%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>44,63%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>24,9%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>19,62%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>41,09%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>31,53%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>25,97%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>28,98; 53,96</t>
+          <t>13,66; 32,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,73; 36,54</t>
+          <t>31,45; 56,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,4; 30,19</t>
+          <t>30,52; 52,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>36,36; 55,89</t>
+          <t>11,47; 33,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,54; 36,51</t>
+          <t>11,31; 25,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,62; 32,7</t>
+          <t>30,9; 50,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>36,46; 52,54</t>
+          <t>15,76; 30,15</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,27; 32,44</t>
+          <t>21,67; 41,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>17,82; 29,26</t>
+          <t>14,14; 25,93</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>32,23; 49,89</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>25,56; 38,21</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>19,1; 34,18</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>36,26%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>35,02%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>37,15%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>52,63%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>38,16%</t>
+          <t>41,68%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>34,77%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>34,74%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>44,89%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>42,65%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>13,68; 18,56</t>
+          <t>24,16; 55,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>32,51; 40,15</t>
+          <t>23,31; 45,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>27,41; 33,89</t>
+          <t>28,12; 47,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,39; 19,52</t>
+          <t>27,23; 58,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>36,97; 43,56</t>
+          <t>24,9; 42,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>26,17; 31,6</t>
+          <t>25,03; 44,73</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>14,69; 18,13</t>
+          <t>42,8; 60,45</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>35,75; 40,75</t>
+          <t>30,51; 53,39</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>27,46; 31,82</t>
+          <t>27,84; 45,3</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>27,28; 42,57</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>38,35; 51,53</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>33,05; 51,58</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>41,37%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>41,35%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>36,95%</t>
+          <t>49,81%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>39,14%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>42,46%</t>
+          <t>45,62%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>24,17%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>23,58%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>31,38%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>32,84; 40,97</t>
+          <t>28,66; 54,3</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>37,68; 45,92</t>
+          <t>14,59; 32,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>37,48; 45,0</t>
+          <t>13,84; 29,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>30,01; 36,12</t>
+          <t>19,03; 57,44</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>33,56; 40,48</t>
+          <t>40,55; 59,11</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>40,89; 46,66</t>
+          <t>16,99; 34,67</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>32,34; 37,51</t>
+          <t>17,54; 34,08</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>36,35; 41,76</t>
+          <t>18,49; 39,85</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>40,05; 44,68</t>
+          <t>36,99; 52,88</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>18,05; 31,01</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>18,28; 29,66</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>22,47; 44,74</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>47,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>50,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>48,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2228,630 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>43,1; 51,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>18,94; 26,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>25,09; 32,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>47,07; 53,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>20,15; 26,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>25,22; 30,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>46,11; 51,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>20,64; 25,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>25,99; 30,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>16,29%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>36,28%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>30,14%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>27,02%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>15,62%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>40,47%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>28,62%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>31,46%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>15,95%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>38,43%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>29,36%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>29,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>13,98; 19,15</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>32,43; 40,37</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>27,29; 33,54</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>23,49; 31,55</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>13,47; 18,05</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>37,28; 43,61</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>26,04; 31,16</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>28,14; 35,29</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>14,39; 17,6</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>35,95; 41,05</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>27,34; 31,33</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>26,58; 31,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>36,07%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>41,18%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>41,6%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>46,07%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>33,39%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>36,76%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>43,23%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>41,14%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>34,69%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>38,92%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>42,43%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>43,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>32,04; 40,61</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>37,45; 45,32</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>37,74; 44,58</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>41,43; 50,73</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>30,54; 36,45</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>33,73; 39,9</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>40,7; 46,42</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>37,86; 44,59</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>32,24; 37,16</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>36,44; 41,37</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>39,98; 44,52</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>40,76; 46,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>47,64%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>22,53%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>28,26%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>26,91%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>50,99%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>28,16%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>27,39%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>49,36%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>22,65%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>28,21%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>27,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>43,5; 51,59</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>19,68; 26,75</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>25,15; 32,53</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>22,79; 31,56</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>48,03; 54,3</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>20,25; 25,75</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>25,49; 30,96</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>24,02; 30,57</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>46,88; 51,69</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>20,46; 25,1</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>26,28; 30,42</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>24,73; 30,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
